--- a/biology/Zoologie/Deiléphile_candiote/Deiléphile_candiote.xlsx
+++ b/biology/Zoologie/Deiléphile_candiote/Deiléphile_candiote.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Deil%C3%A9phile_candiote</t>
+          <t>Deiléphile_candiote</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Theretra alecto
 Theretra alecto est une espèce d'insectes lépidoptères de la famille des Sphingidae, de la sous-famille des Macroglossinae, de la tribu des Macroglossini, de la sous-tribu des Choerocampina et du genre Theretra.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Deil%C3%A9phile_candiote</t>
+          <t>Deiléphile_candiote</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'envergure varie de 75 à 106 cm. 
 			Mâle  face dorsale (coll.MHNT)
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Deil%C3%A9phile_candiote</t>
+          <t>Deiléphile_candiote</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +563,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est connue dans l'écozone indomalaise et dans les parties chaudes de l'écozone paléarctique, y compris dans l'extrême sud-est de l'Europe.
 </t>
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Deil%C3%A9phile_candiote</t>
+          <t>Deiléphile_candiote</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,7 +596,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les chenilles se nourrissent sur les espèces des genres Vitis et Parthenocissus.
 </t>
@@ -593,7 +611,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Deil%C3%A9phile_candiote</t>
+          <t>Deiléphile_candiote</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -611,15 +629,52 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>L'espèce Theretra alecto a été décrite  par le naturaliste suédois Carl von Linné en 1758, sous le nom initial de Sphinx alecto[2]. La localité type est l'Inde. 
-Synonymie
-Sphinx alecto Linnaeus protonyme
-Sphinx cretica Boisduval, 1827[3]
-Theretra freyeri Kirby, 1892[4]
-Theretra alecto transcaspica O. Bang-Haas, 1927[5]
-Theretra alecto intermissa Gehlen, 1941[6]</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Theretra alecto a été décrite  par le naturaliste suédois Carl von Linné en 1758, sous le nom initial de Sphinx alecto. La localité type est l'Inde. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Deiléphile_candiote</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Deil%C3%A9phile_candiote</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Sphinx alecto Linnaeus protonyme
+Sphinx cretica Boisduval, 1827
+Theretra freyeri Kirby, 1892
+Theretra alecto transcaspica O. Bang-Haas, 1927
+Theretra alecto intermissa Gehlen, 1941</t>
         </is>
       </c>
     </row>
